--- a/new/ja-JP/new.xlsx
+++ b/new/ja-JP/new.xlsx
@@ -90,9 +90,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="New Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -106,7 +106,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -118,7 +118,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -135,9 +135,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,31 +165,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -217,23 +200,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/new/ja-JP/new.xlsx
+++ b/new/ja-JP/new.xlsx
@@ -8,7 +8,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{0EDA04EA-5C01-44B9-B686-9CA78402A020}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
